--- a/Plot_tool/xlsx/DMLCT_n5_32x32.xlsx
+++ b/Plot_tool/xlsx/DMLCT_n5_32x32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7506E3AE-A8A8-4BDD-A87A-09C6398D2BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980A589-5ECE-4E3F-87D8-EF68AAD13EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="Mandrill" sheetId="6" r:id="rId6"/>
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST02" sheetId="9" r:id="rId9"/>
+    <sheet name="TEST19" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="6">
   <si>
     <t>bpp</t>
   </si>
@@ -150,6 +152,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Var(--jp-code-font-family)"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -968,6 +972,317 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EB94FC-D5A7-427D-B9BC-544039F45F5D}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>19.62890625</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41.215009130196897</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.95111933350598798</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2193.97973632812</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1793.5458374023401</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>16.11328125</v>
+      </c>
+      <c r="C3" s="3">
+        <v>41.754151279866399</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.95415896611193296</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2227.49633789062</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1800.2572631835901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>13.96484375</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42.183090188557799</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.95681105705165104</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2281.50317382812</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1798.34228515625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="5">
+        <v>12.40234375</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42.5651647323891</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.95892225589061297</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2313.20629882812</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1806.0742797851501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>11.03515625</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42.969380212528002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.961231191514346</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2329.4066162109302</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1812.40417480468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10.05859375</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43.308130736223298</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.96319947484051804</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2341.5361328125</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1801.42761230468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9.27734375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43.617688153690899</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.96479865610812299</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2347.52124023437</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1807.9462890625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8.69140625</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43.882186409293602</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.96611408383638298</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2346.4407958984302</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1798.4208984375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8.10546875</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44.172665410372097</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.96767742170687499</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2347.97485351562</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1791.1203002929601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7.51953125</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44.497637939304397</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.96925962000058596</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2334.6629638671802</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1783.93298339843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7.12890625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44.734910996575003</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.97037969775310495</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2334.9476318359302</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1788.4570922851501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6.73828125</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44.991433414529602</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.971628977525542</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2324.759765625</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1789.2376098632801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6.34765625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45.274156434713703</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.97280004432171696</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2305.6619873046802</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1788.46350097656</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
@@ -2832,7 +3147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3137,4 +3452,315 @@
     <oddFooter>&amp;Cページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE3ADD7-C1AF-4767-B47E-127AE7DC99CB}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>12.59765625</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44.678602371090399</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.97463026237106098</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1419.07165527343</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1228.45471191406</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10.25390625</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45.1373861179312</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.97601894985874404</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1429.04382324218</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1220.4085083007801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8.88671875</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45.4781130755959</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.97715321094592</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1447.18603515625</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1226.1447143554601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.91015625</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45.782704451275201</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.97822482532728805</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1482.37426757812</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1230.6364135742101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7.12890625</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46.080764571202302</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.97929898836611495</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1512.50854492187</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1230.62268066406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6.54296875</v>
+      </c>
+      <c r="C7" s="3">
+        <v>46.3466057902872</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.98026237310937903</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1537.97485351562</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1230.60131835937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5.95703125</v>
+      </c>
+      <c r="C8" s="3">
+        <v>46.659599268612403</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.98138009195071896</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1558.10791015625</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1226.42114257812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5.56640625</v>
+      </c>
+      <c r="C9" s="3">
+        <v>46.903906118664302</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.98224611164724795</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1569.97521972656</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1221.7692260742101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.37109375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>47.037069587646698</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.982702989298045</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1575.28637695312</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1227.30102539062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.98046875</v>
+      </c>
+      <c r="C11" s="3">
+        <v>47.329780168436002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.98368470203506797</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1585.81140136718</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1230.46008300781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4.78515625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>47.4947884863167</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.98422310222329001</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1590.0712890625</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1229.17785644531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.39453125</v>
+      </c>
+      <c r="C13" s="3">
+        <v>47.860764024132003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.98536728147498198</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1603.23388671875</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1228.6882934570301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4.19921875</v>
+      </c>
+      <c r="C14" s="3">
+        <v>48.064408851311498</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.98597797847232105</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1604.59008789062</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1228.79650878906</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Plot_tool/xlsx/DMLCT_n5_32x32.xlsx
+++ b/Plot_tool/xlsx/DMLCT_n5_32x32.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="Sailboat" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="TEST02" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="TEST19" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="6">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -66,6 +67,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,6 +192,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -491,13 +494,13 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -808,12 +811,12 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -1098,6 +1101,320 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>1788.46350097656</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>78.61328125</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>32.7237691894878</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.863229155970867</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>22160.3911132812</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5955.60107421875</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>59.47265625</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>34.1805832423834</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.888515243141493</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>18946.6381835937</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>5767.08837890625</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>47.16796875</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>35.4045437240828</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.906035854139202</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>16857.6689453125</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>5645.81787109375</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>38.37890625</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>36.5140637647676</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.921124314882074</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>15356.6499023438</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5365.09741210937</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>31.93359375</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>37.5085628564214</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.932733730236092</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>14063.80859375</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>5296.89013671875</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>27.05078125</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>38.3943009687517</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.941124610946846</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>12994.6708984375</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>5122.7880859375</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>23.14453125</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>39.2210397295161</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.949992246997884</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>12226.9106445313</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>5061.78173828125</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>20.21484375</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>39.9466580535152</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.956279624507784</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>11813.8984375</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>4979.77905273438</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>17.67578125</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>40.6240374477209</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.960731705521435</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>11411.5361328125</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>4994.48266601563</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>15.72265625</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>41.2250073778747</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.964699730900714</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>11034.3364257813</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>4919.65478515625</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>13.96484375</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>41.8137590212412</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.969307691256573</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>10746.1420898438</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>4930.55493164063</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>12.59765625</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>42.3288733774029</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.972536903625156</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>10504.1108398438</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>4838.96630859375</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>11.42578125</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>42.8133455319949</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.975037439998053</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>10343.6015625</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>4806.72729492188</v>
       </c>
     </row>
   </sheetData>
@@ -1122,12 +1439,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -1436,12 +1753,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -1750,12 +2067,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -2064,12 +2381,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -2378,12 +2695,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -2692,12 +3009,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -3006,12 +3323,12 @@
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>
@@ -3316,16 +3633,16 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.08"/>
   </cols>
   <sheetData>

--- a/Plot_tool/xlsx/DMLCT_n5_32x32.xlsx
+++ b/Plot_tool/xlsx/DMLCT_n5_32x32.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="N6RGB" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Trumpet" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sailboat256" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="6">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -507,14 +508,14 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,13 +825,13 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,13 +1139,13 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,13 +1453,13 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,17 +1763,17 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,6 +2057,320 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>4816.21118164063</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>180.6640625</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>23.4344977827204</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.633728581779937</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>106481.3359375</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>12198.06640625</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>147.0703125</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>24.2818010225472</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.666190737164866</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>95063.765625</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>11654.52734375</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>125.5859375</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>25.016064999543</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.690276895232204</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>88261.984375</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>9539.01171875</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>108.3984375</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>25.7296481370781</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.712326188402958</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>83257.359375</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>9427.390625</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>94.7265625</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>26.4321226812958</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.737927601619989</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>79937.6171875</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>9510.60546875</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>83.7890625</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>27.0349827144197</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.762241610450596</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>74221.7265625</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10119.72265625</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>74.8046875</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>27.626275447367</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.778285879191613</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>69257.9375</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10051.421875</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>67.7734375</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>28.1565613731264</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.793422285412503</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>65939.7734375</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>9441.86328125</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>61.5234375</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>28.6596565067864</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.809286949916624</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>62601.4296875</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>9195.203125</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>56.4453125</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>29.1462302840691</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.821512357022191</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>60808.53125</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>7547.40234375</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>51.7578125</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>29.6190686224513</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.834357882485215</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>60914.1875</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>7716.1171875</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>47.8515625</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>30.0498934664036</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.843849197513095</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>59394.8671875</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>7585.2421875</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="12" t="n">
+        <v>44.7265625</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>30.4605920413001</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.853780221837968</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>58137.8671875</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>7633.59375</v>
       </c>
     </row>
   </sheetData>
@@ -2080,13 +2395,13 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,13 +2709,13 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,13 +3023,13 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,13 +3337,13 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,13 +3651,13 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,13 +3965,13 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,13 +4279,13 @@
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,13 +4593,13 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
